--- a/biology/Botanique/Hymenophyllum_valvatum/Hymenophyllum_valvatum.xlsx
+++ b/biology/Botanique/Hymenophyllum_valvatum/Hymenophyllum_valvatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum valvatum est une espèce de fougères de la famille des Hyménophyllacées.
 Synonyme : Sphaerocionium valvatum (Hook, et Grev.) Copel..
-L'index IPNI ajoute comme synonymes : Hymenophyllum platylobum Bosch et Hymenophyllum producens Fée ; l'index Tropicos ajoute lui Hymephyllum crispatulum Bosch ; enfin Conrad Vernon Morton ajoute aussi Hymenophyllum francavillei Bosch[1].
+L'index IPNI ajoute comme synonymes : Hymenophyllum platylobum Bosch et Hymenophyllum producens Fée ; l'index Tropicos ajoute lui Hymephyllum crispatulum Bosch ; enfin Conrad Vernon Morton ajoute aussi Hymenophyllum francavillei Bosch.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hymenophyllum valvatum appartient au sous-genre Sphaerocionium.
 Cette espèce a les caractéristiques suivantes :
@@ -550,9 +564,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce, plutôt épiphyte de forêts pluviales, est présente en Amérique tropicale : Bolivie, Brésil, Colombie, Costa Rica, Équateur, Guatemala, Guyana, Nicaragua, Pérou, Venezuela et Caraïbes. Cette espèce est présente en Guyane, en Guadeloupe et en Martinique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, plutôt épiphyte de forêts pluviales, est présente en Amérique tropicale : Bolivie, Brésil, Colombie, Costa Rica, Équateur, Guatemala, Guyana, Nicaragua, Pérou, Venezuela et Caraïbes. Cette espèce est présente en Guyane, en Guadeloupe et en Martinique.
 </t>
         </is>
       </c>
